--- a/02_config/scenario_pv_60_hp_60_ev_60_individual_summer_naive/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_individual_summer_naive/agents.xlsx
@@ -28,10 +28,10 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
-  </si>
-  <si>
-    <t>general/aggregated_by</t>
   </si>
   <si>
     <t>general/parameters/area</t>
@@ -2795,11 +2795,11 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
-        <v>4</v>
+      <c r="G2">
+        <v>3</v>
       </c>
       <c r="H2">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -2808,7 +2808,7 @@
         <v>2.6</v>
       </c>
       <c r="K2">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -2967,7 +2967,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>367</v>
@@ -3249,7 +3249,7 @@
         <v>487</v>
       </c>
       <c r="IN2">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3300,7 +3300,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3309,7 +3309,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:290">
@@ -3322,11 +3322,11 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
-        <v>4</v>
+      <c r="G3">
+        <v>3</v>
       </c>
       <c r="H3">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3335,7 +3335,7 @@
         <v>2.6</v>
       </c>
       <c r="K3">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L3">
         <v>1</v>
@@ -3479,7 +3479,7 @@
         <v>0</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>367</v>
@@ -3722,7 +3722,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:290">
@@ -3744,7 +3744,7 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>3</v>
       </c>
       <c r="H4">
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>367</v>
@@ -4093,7 +4093,7 @@
         <v>487</v>
       </c>
       <c r="IN4">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO4">
         <v>1</v>
@@ -4144,7 +4144,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:290">
@@ -4166,11 +4166,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
-        <v>4</v>
+      <c r="G5">
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I5">
         <v>2</v>
@@ -4179,7 +4179,7 @@
         <v>2.6</v>
       </c>
       <c r="K5">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L5">
         <v>1</v>
@@ -4338,7 +4338,7 @@
         <v>51</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>367</v>
@@ -4620,7 +4620,7 @@
         <v>487</v>
       </c>
       <c r="IN5">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO5">
         <v>1</v>
@@ -4677,7 +4677,7 @@
         <v>51</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM5" t="s">
         <v>502</v>
@@ -4753,7 +4753,7 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3</v>
       </c>
       <c r="H6">
@@ -4910,7 +4910,7 @@
         <v>0</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>367</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5162,7 +5162,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:290">
@@ -5175,7 +5175,7 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>4</v>
       </c>
       <c r="H7">
@@ -5347,7 +5347,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>367</v>
@@ -5629,7 +5629,7 @@
         <v>487</v>
       </c>
       <c r="IN7">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5680,7 +5680,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5689,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:290">
@@ -5702,11 +5702,11 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
-        <v>3</v>
+      <c r="G8">
+        <v>4</v>
       </c>
       <c r="H8">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -5715,7 +5715,7 @@
         <v>2.6</v>
       </c>
       <c r="K8">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L8">
         <v>1</v>
@@ -5874,7 +5874,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>367</v>
@@ -6156,7 +6156,7 @@
         <v>487</v>
       </c>
       <c r="IN8">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO8">
         <v>1</v>
@@ -6213,7 +6213,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6228,7 +6228,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM8" t="s">
         <v>503</v>
@@ -6268,11 +6268,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>3</v>
+      <c r="G9">
+        <v>4</v>
       </c>
       <c r="H9">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6281,7 +6281,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6440,7 +6440,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>367</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM9" t="s">
         <v>504</v>
@@ -6822,7 +6822,7 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>4</v>
       </c>
       <c r="H10">
@@ -6979,7 +6979,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>367</v>
@@ -7171,7 +7171,7 @@
         <v>487</v>
       </c>
       <c r="IN10">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7222,7 +7222,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7231,7 +7231,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:290">
@@ -7244,11 +7244,11 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
-        <v>4</v>
+      <c r="G11">
+        <v>3</v>
       </c>
       <c r="H11">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -7257,7 +7257,7 @@
         <v>2.6</v>
       </c>
       <c r="K11">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L11">
         <v>1</v>
@@ -7401,7 +7401,7 @@
         <v>0</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>367</v>
@@ -7644,7 +7644,7 @@
         <v>0</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ11">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:290">
@@ -7666,11 +7666,11 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
-        <v>3</v>
+      <c r="G12">
+        <v>4</v>
       </c>
       <c r="H12">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I12">
         <v>2</v>
@@ -7679,7 +7679,7 @@
         <v>2.6</v>
       </c>
       <c r="K12">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L12">
         <v>1</v>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>367</v>
@@ -8015,7 +8015,7 @@
         <v>487</v>
       </c>
       <c r="IN12">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO12">
         <v>1</v>
@@ -8066,7 +8066,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8075,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:290">
@@ -8088,7 +8088,7 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3</v>
       </c>
       <c r="H13">
@@ -8245,7 +8245,7 @@
         <v>0</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>367</v>
@@ -8437,7 +8437,7 @@
         <v>487</v>
       </c>
       <c r="IN13">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO13">
         <v>1</v>
@@ -8488,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:290">
@@ -8510,11 +8510,11 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>4</v>
+      <c r="G14">
+        <v>3</v>
       </c>
       <c r="H14">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8523,7 +8523,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8667,7 +8667,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>367</v>
@@ -8859,7 +8859,7 @@
         <v>487</v>
       </c>
       <c r="IN14">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -8910,7 +8910,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -8919,7 +8919,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:290">
@@ -8932,11 +8932,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -8945,7 +8945,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9104,7 +9104,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>367</v>
@@ -9359,7 +9359,7 @@
         <v>487</v>
       </c>
       <c r="IN15">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9419,7 +9419,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:290">
@@ -9432,7 +9432,7 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>4</v>
       </c>
       <c r="H16">
@@ -9589,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>367</v>
@@ -9781,7 +9781,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -9841,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:290">
@@ -9854,11 +9854,11 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
-        <v>3</v>
+      <c r="G17">
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -9867,7 +9867,7 @@
         <v>2.6</v>
       </c>
       <c r="K17">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L17">
         <v>1</v>
@@ -10026,7 +10026,7 @@
         <v>45</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>367</v>
@@ -10281,7 +10281,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10332,7 +10332,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10341,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:290">
@@ -10354,11 +10354,11 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
-        <v>3</v>
+      <c r="G18">
+        <v>4</v>
       </c>
       <c r="H18">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -10367,7 +10367,7 @@
         <v>2.6</v>
       </c>
       <c r="K18">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L18">
         <v>1</v>
@@ -10526,7 +10526,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>367</v>
@@ -10808,7 +10808,7 @@
         <v>487</v>
       </c>
       <c r="IN18">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO18">
         <v>1</v>
@@ -10859,7 +10859,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:290">
@@ -10881,7 +10881,7 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
       </c>
       <c r="H19">
@@ -11053,7 +11053,7 @@
         <v>50</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>367</v>
@@ -11308,7 +11308,7 @@
         <v>487</v>
       </c>
       <c r="IN19">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO19">
         <v>1</v>
@@ -11359,7 +11359,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11368,7 +11368,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:290">
@@ -11381,11 +11381,11 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
-        <v>4</v>
+      <c r="G20">
+        <v>3</v>
       </c>
       <c r="H20">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -11394,7 +11394,7 @@
         <v>2.6</v>
       </c>
       <c r="K20">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L20">
         <v>1</v>
@@ -11538,7 +11538,7 @@
         <v>0</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>367</v>
@@ -11730,7 +11730,7 @@
         <v>487</v>
       </c>
       <c r="IN20">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO20">
         <v>1</v>
@@ -11781,7 +11781,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -11790,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:290">
@@ -11803,11 +11803,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>4</v>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -11816,7 +11816,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -11960,7 +11960,7 @@
         <v>0</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>367</v>
@@ -12152,7 +12152,7 @@
         <v>487</v>
       </c>
       <c r="IN21">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO21">
         <v>1</v>
@@ -12203,7 +12203,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12212,7 +12212,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:290">
@@ -12225,11 +12225,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12238,7 +12238,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12382,7 +12382,7 @@
         <v>0</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>367</v>
@@ -12574,7 +12574,7 @@
         <v>487</v>
       </c>
       <c r="IN22">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -12625,7 +12625,7 @@
         <v>0</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -12634,7 +12634,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:290">
@@ -12647,11 +12647,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>4</v>
+      <c r="G23">
+        <v>3</v>
       </c>
       <c r="H23">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -12660,7 +12660,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -12819,7 +12819,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>367</v>
@@ -13158,7 +13158,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13173,7 +13173,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM23" t="s">
         <v>505</v>
@@ -13213,11 +13213,11 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
-        <v>4</v>
+      <c r="G24">
+        <v>3</v>
       </c>
       <c r="H24">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I24">
         <v>2</v>
@@ -13226,7 +13226,7 @@
         <v>2.6</v>
       </c>
       <c r="K24">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L24">
         <v>1</v>
@@ -13385,7 +13385,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>367</v>
@@ -13640,7 +13640,7 @@
         <v>487</v>
       </c>
       <c r="IN24">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -13691,7 +13691,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -13700,7 +13700,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:290">
@@ -13713,11 +13713,11 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
-        <v>3</v>
+      <c r="G25">
+        <v>4</v>
       </c>
       <c r="H25">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -13726,7 +13726,7 @@
         <v>2.6</v>
       </c>
       <c r="K25">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -13885,7 +13885,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>367</v>
@@ -14191,7 +14191,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14200,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:290">
@@ -14213,7 +14213,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3</v>
       </c>
       <c r="H26">
@@ -14370,7 +14370,7 @@
         <v>0</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>367</v>
@@ -14562,7 +14562,7 @@
         <v>487</v>
       </c>
       <c r="IN26">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>0</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -14622,7 +14622,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:290">
@@ -14635,7 +14635,7 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>4</v>
       </c>
       <c r="H27">
@@ -14807,7 +14807,7 @@
         <v>52</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>367</v>
@@ -15089,7 +15089,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15140,7 +15140,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15149,7 +15149,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:290">
@@ -15162,11 +15162,11 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
-        <v>3</v>
+      <c r="G28">
+        <v>4</v>
       </c>
       <c r="H28">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I28">
         <v>2</v>
@@ -15175,7 +15175,7 @@
         <v>2.6</v>
       </c>
       <c r="K28">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L28">
         <v>1</v>
@@ -15334,7 +15334,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>367</v>
@@ -15616,7 +15616,7 @@
         <v>487</v>
       </c>
       <c r="IN28">
-        <v>86400</v>
+        <v>72000</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -15673,7 +15673,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -15682,7 +15682,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:290">
@@ -15695,11 +15695,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>4</v>
+      <c r="G29">
+        <v>3</v>
       </c>
       <c r="H29">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -15708,7 +15708,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -15867,7 +15867,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>367</v>
@@ -16095,7 +16095,7 @@
         <v>487</v>
       </c>
       <c r="IN29">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16152,7 +16152,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16161,7 +16161,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:290">
@@ -16174,11 +16174,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>3</v>
+      <c r="G30">
+        <v>4</v>
       </c>
       <c r="H30">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16187,7 +16187,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16346,7 +16346,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>367</v>
@@ -16679,7 +16679,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -16688,7 +16688,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM30" t="s">
         <v>506</v>
@@ -16755,11 +16755,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
-        <v>4</v>
+      <c r="G31">
+        <v>3</v>
       </c>
       <c r="H31">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -16768,7 +16768,7 @@
         <v>2.6</v>
       </c>
       <c r="K31">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L31">
         <v>1</v>
@@ -16927,7 +16927,7 @@
         <v>41</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>367</v>
@@ -17266,7 +17266,7 @@
         <v>41</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17275,7 +17275,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM31" t="s">
         <v>507</v>
@@ -17342,7 +17342,7 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>4</v>
       </c>
       <c r="H32">
@@ -17514,7 +17514,7 @@
         <v>65</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>367</v>
@@ -17796,7 +17796,7 @@
         <v>487</v>
       </c>
       <c r="IN32">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO32">
         <v>1</v>
@@ -17853,7 +17853,7 @@
         <v>64</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH32">
         <v>4000</v>
@@ -17868,7 +17868,7 @@
         <v>65</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:290">
@@ -17881,7 +17881,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18053,7 +18053,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>367</v>
@@ -18386,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18395,7 +18395,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:290">
@@ -18408,11 +18408,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>3</v>
+      <c r="G34">
+        <v>4</v>
       </c>
       <c r="H34">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18421,7 +18421,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18580,7 +18580,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>367</v>
@@ -18862,7 +18862,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -18913,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -18922,7 +18922,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM34" t="s">
         <v>508</v>
@@ -18989,7 +18989,7 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>3</v>
       </c>
       <c r="H35">
@@ -19146,7 +19146,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>367</v>
@@ -19338,7 +19338,7 @@
         <v>487</v>
       </c>
       <c r="IN35">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19389,7 +19389,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19398,7 +19398,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:290">
@@ -19411,7 +19411,7 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>3</v>
       </c>
       <c r="H36">
@@ -19568,7 +19568,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>367</v>
@@ -19760,7 +19760,7 @@
         <v>487</v>
       </c>
       <c r="IN36">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -19811,7 +19811,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -19820,7 +19820,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:290">
@@ -19833,7 +19833,7 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4</v>
       </c>
       <c r="H37">
@@ -20005,7 +20005,7 @@
         <v>90</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>367</v>
@@ -20287,7 +20287,7 @@
         <v>487</v>
       </c>
       <c r="IN37">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20344,7 +20344,7 @@
         <v>71</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH37">
         <v>10600</v>
@@ -20359,7 +20359,7 @@
         <v>71</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:290">
@@ -20372,7 +20372,7 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>4</v>
       </c>
       <c r="H38">
@@ -20544,7 +20544,7 @@
         <v>60</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>367</v>
@@ -20826,7 +20826,7 @@
         <v>487</v>
       </c>
       <c r="IN38">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO38">
         <v>1</v>
@@ -20877,7 +20877,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -20886,7 +20886,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:290">
@@ -20899,7 +20899,7 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>3</v>
       </c>
       <c r="H39">
@@ -21071,7 +21071,7 @@
         <v>50</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>367</v>
@@ -21353,7 +21353,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21410,7 +21410,7 @@
         <v>50</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21419,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:290">
@@ -21432,7 +21432,7 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>3</v>
       </c>
       <c r="H40">
@@ -21589,7 +21589,7 @@
         <v>0</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>367</v>
@@ -21781,7 +21781,7 @@
         <v>487</v>
       </c>
       <c r="IN40">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO40">
         <v>1</v>
@@ -21832,7 +21832,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -21841,7 +21841,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
